--- a/TT_ultima.xlsx
+++ b/TT_ultima.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIM\SSL\tp1-scanner-elemental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc_mu\RomProgramacion\TP1-SSL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
     <t>4+</t>
   </si>
   <si>
-    <t>ESPACIOS</t>
+    <t>FDA</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -142,6 +142,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,41 +431,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K9" sqref="B1:K9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3">
+      <c r="C1" s="3">
         <v>0</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1"/>
@@ -467,35 +474,34 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="I2" s="4">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
@@ -503,215 +509,209 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>6</v>
+      <c r="J3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6</v>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6</v>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4">
         <v>6</v>
       </c>
       <c r="L8" s="1"/>
@@ -719,35 +719,34 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4">
         <v>7</v>
       </c>
       <c r="L9" s="1"/>
